--- a/api/functions/Excel/Felix.xlsx
+++ b/api/functions/Excel/Felix.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greenlandscapingmalmo-my.sharepoint.com/personal/andreas_lofkvist_glnet_se/Documents/Dokument/Projekt/Dagböcker trafikverket/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greenlandscapingmalmo-my.sharepoint.com/personal/andreas_lofkvist_glnet_se/Documents/Dokument/Code/Projects/API/api/functions/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7B9CA257-E89A-4DA0-8C9F-8E2273A210E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B226A190-4789-4DF6-8DFC-0E89C8698ED0}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7B9CA257-E89A-4DA0-8C9F-8E2273A210E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{101CAD6D-0D57-41FC-9BD2-97DFDE6EF7D3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Platschef, trädbesiktare" sheetId="1" r:id="rId1"/>
     <sheet name="Arborist, markarbetare, maskin," sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -698,17 +697,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -717,73 +765,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,16 +801,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,53 +1125,53 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="1.1796875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="67" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
@@ -1182,20 +1181,20 @@
       <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1203,15 +1202,15 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="L3" s="70"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="72"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
@@ -1219,35 +1218,35 @@
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="53" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -1255,35 +1254,35 @@
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="74" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="10"/>
       <c r="M7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="73" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -1291,35 +1290,35 @@
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="53" t="s">
+      <c r="K8" s="52"/>
+      <c r="L8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="10"/>
       <c r="M9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
@@ -1327,35 +1326,35 @@
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="53" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="56"/>
@@ -1365,35 +1364,35 @@
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="53" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="10"/>
       <c r="M13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
@@ -1401,35 +1400,35 @@
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="53" t="s">
+      <c r="K14" s="52"/>
+      <c r="L14" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="10"/>
       <c r="M15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1437,51 +1436,51 @@
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="53" t="s">
+      <c r="K16" s="52"/>
+      <c r="L16" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="10"/>
       <c r="M17" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="65"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="42"/>
-    </row>
-    <row r="19" spans="1:13" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="77" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1510,11 +1509,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="78"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="42"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="39" t="s">
         <v>29</v>
       </c>
@@ -1530,10 +1529,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="79"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="42"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="40"/>
       <c r="E21" s="39" t="s">
         <v>30</v>
@@ -1550,11 +1549,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="65"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="42"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="39" t="s">
         <v>31</v>
       </c>
@@ -1570,10 +1569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="65"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="42"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="40"/>
       <c r="E23" s="39" t="s">
         <v>32</v>
@@ -1590,10 +1589,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="65"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="42"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="40"/>
       <c r="E24" s="39" t="s">
         <v>33</v>
@@ -1610,10 +1609,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="42"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="40"/>
       <c r="E25" s="39" t="s">
         <v>34</v>
@@ -1630,11 +1629,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="42"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="39" t="s">
         <v>35</v>
       </c>
@@ -1650,16 +1649,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="81"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="42"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="21">
         <f t="shared" ref="H27:M27" si="1">SUM(H20:H26)</f>
         <v>0</v>
@@ -1685,24 +1684,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="44" t="s">
+      <c r="G28" s="43"/>
+      <c r="H28" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="16"/>
       <c r="K28" s="15" t="s">
         <v>40</v>
@@ -1710,137 +1709,137 @@
       <c r="L28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="46"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="80"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="42"/>
+      <c r="M28" s="71"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="28"/>
       <c r="E29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="18"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="47"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="79"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="42"/>
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="40"/>
       <c r="E30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="18"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="47"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="65"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="42"/>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="18"/>
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="65"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="42"/>
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="40"/>
       <c r="E32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="42"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="29"/>
       <c r="K32" s="30"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="47"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="65"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="42"/>
+      <c r="M32" s="72"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="40"/>
       <c r="E33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="18"/>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="47"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="42"/>
+      <c r="M33" s="72"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="28"/>
       <c r="E34" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="18"/>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
-      <c r="M34" s="47"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="51"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="42"/>
+      <c r="M34" s="72"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="28"/>
       <c r="E35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="18"/>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="42"/>
+      <c r="M35" s="72"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="75"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="31" t="s">
         <v>42</v>
       </c>
@@ -1852,27 +1851,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M36" s="48"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="53" t="s">
+      <c r="M36" s="73"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="42"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="55"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
@@ -1884,164 +1883,130 @@
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
-      <c r="M38" s="57"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="60"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="63"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="64" t="s">
+      <c r="M38" s="52"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="65"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="65"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="63"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="65"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="65"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="54"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="64" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="42"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="74"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:K17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C14:K15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:K11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:K13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="M28:M36"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -2058,17 +2023,51 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:K11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:K13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:K17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2083,56 +2082,56 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="1.1796875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="85" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
@@ -2144,22 +2143,22 @@
       <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="86">
+      <c r="F3" s="43"/>
+      <c r="G3" s="85">
         <v>635</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2169,15 +2168,15 @@
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="L3" s="70"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="61" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="56"/>
@@ -2188,34 +2187,34 @@
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="61" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="56"/>
@@ -2226,34 +2225,34 @@
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="10"/>
       <c r="M7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="73" t="s">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="61" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="56"/>
@@ -2264,34 +2263,34 @@
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="10"/>
       <c r="M9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
@@ -2300,34 +2299,34 @@
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="53" t="s">
+      <c r="L10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="s">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
@@ -2336,34 +2335,34 @@
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="10"/>
       <c r="M13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
@@ -2371,35 +2370,35 @@
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="53" t="s">
+      <c r="K14" s="52"/>
+      <c r="L14" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="10"/>
       <c r="M15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -2407,51 +2406,51 @@
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="53" t="s">
+      <c r="K16" s="52"/>
+      <c r="L16" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="10"/>
       <c r="M17" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="65"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="42"/>
-    </row>
-    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="77" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="13" t="s">
         <v>20</v>
       </c>
@@ -2480,13 +2479,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="78" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="39" t="s">
         <v>29</v>
       </c>
@@ -2512,12 +2511,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="40"/>
       <c r="E21" s="39" t="s">
         <v>30</v>
@@ -2538,18 +2537,20 @@
       <c r="K21" s="18">
         <v>0.5</v>
       </c>
-      <c r="L21" s="18"/>
+      <c r="L21" s="18">
+        <v>4</v>
+      </c>
       <c r="M21" s="34">
         <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="65" t="s">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="35"/>
       <c r="E22" s="39" t="s">
         <v>31</v>
@@ -2576,12 +2577,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="65" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="40"/>
       <c r="E23" s="39" t="s">
         <v>32</v>
@@ -2594,20 +2595,24 @@
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="18"/>
+      <c r="J23" s="18">
+        <v>3</v>
+      </c>
       <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="L23" s="18">
+        <v>2</v>
+      </c>
       <c r="M23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="40"/>
       <c r="E24" s="39" t="s">
         <v>33</v>
@@ -2628,10 +2633,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="88"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="42"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="82"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="40"/>
       <c r="E25" s="39" t="s">
         <v>34</v>
@@ -2648,11 +2653,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="78"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="42"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="39" t="s">
         <v>35</v>
       </c>
@@ -2668,16 +2673,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="81"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="42"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="21">
         <f t="shared" ref="H27:M27" si="1">SUM(H20:H26)</f>
         <v>3</v>
@@ -2688,7 +2693,7 @@
       </c>
       <c r="J27" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="26">
         <f t="shared" si="1"/>
@@ -2696,31 +2701,31 @@
       </c>
       <c r="L27" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M27" s="27">
         <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="74" t="s">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="44" t="s">
+      <c r="G28" s="43"/>
+      <c r="H28" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="16"/>
       <c r="K28" s="15" t="s">
         <v>40</v>
@@ -2728,184 +2733,184 @@
       <c r="L28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="46"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="78" t="s">
+      <c r="M28" s="71"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="18"/>
       <c r="K29" s="26">
         <v>140</v>
       </c>
       <c r="L29" s="26"/>
-      <c r="M29" s="47"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="65" t="s">
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="40"/>
       <c r="E30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="41" t="s">
+      <c r="G30" s="43"/>
+      <c r="H30" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="18"/>
       <c r="K30" s="26">
         <v>140</v>
       </c>
       <c r="L30" s="26"/>
-      <c r="M30" s="47"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="65" t="s">
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="35"/>
       <c r="E31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41" t="s">
+      <c r="G31" s="43"/>
+      <c r="H31" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="42"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="18"/>
       <c r="K31" s="26">
         <v>140</v>
       </c>
       <c r="L31" s="26"/>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="65" t="s">
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="40"/>
       <c r="E32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="88"/>
       <c r="J32" s="18"/>
       <c r="K32" s="26"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="47"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="65" t="s">
+      <c r="M32" s="72"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="40"/>
       <c r="E33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88"/>
       <c r="J33" s="18"/>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="47"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="80">
+      <c r="M33" s="72"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="48">
         <f>'Platschef, trädbesiktare'!A34:C34</f>
         <v>0</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="28"/>
       <c r="E34" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="42"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="18"/>
       <c r="K34" s="37"/>
       <c r="L34" s="26"/>
-      <c r="M34" s="47"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="80">
+      <c r="M34" s="72"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="48">
         <f>'Platschef, trädbesiktare'!A35:C35</f>
         <v>0</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="28"/>
       <c r="E35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="86">
         <f>'Platschef, trädbesiktare'!F35:G35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="82">
+      <c r="G35" s="43"/>
+      <c r="H35" s="86">
         <f>'Platschef, trädbesiktare'!H35:I35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="42"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="18"/>
       <c r="K35" s="37">
         <f>'Platschef, trädbesiktare'!K35</f>
         <v>0</v>
       </c>
       <c r="L35" s="26"/>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="42"/>
+      <c r="M35" s="72"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="75"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="31" t="s">
         <v>42</v>
       </c>
@@ -2917,27 +2922,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M36" s="48"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="53" t="s">
+      <c r="M36" s="73"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="42"/>
-    </row>
-    <row r="38" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="55"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
@@ -2949,164 +2954,130 @@
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
-      <c r="M38" s="57"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="60"/>
-    </row>
-    <row r="40" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60"/>
-    </row>
-    <row r="42" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60"/>
-    </row>
-    <row r="43" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="63"/>
-    </row>
-    <row r="44" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="64" t="s">
+      <c r="M38" s="52"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="65"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="65"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="63"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="65"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="65"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="54"/>
+    </row>
+    <row r="44" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="64" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="42"/>
-    </row>
-    <row r="45" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
+    </row>
+    <row r="45" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="74"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:K17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C14:K15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:K11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:K13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="M28:M36"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -3123,17 +3094,51 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C14:K15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:K11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:K13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:K17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
